--- a/src/main/resources/Database.xlsx
+++ b/src/main/resources/Database.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alexander\IdeaProjects\Coffee_shop\src\main\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\IdeaProject\Coffee_shop\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE696E92-0687-4F2C-9DD4-BEAADF4E4559}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A6F6C55-80A5-48FA-A2F1-CA7D1A54D2F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4755" yWindow="1875" windowWidth="21600" windowHeight="11385" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2616" yWindow="2616" windowWidth="17280" windowHeight="8964" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AdminUser" sheetId="1" r:id="rId1"/>
@@ -181,6 +181,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -231,15 +234,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -521,27 +524,27 @@
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="11.875" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11.88671875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>42</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A2" s="4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -554,7 +557,7 @@
         <v>13100008888</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -564,7 +567,7 @@
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -574,7 +577,7 @@
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -584,7 +587,7 @@
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
@@ -594,7 +597,7 @@
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>43</v>
       </c>
@@ -622,13 +625,13 @@
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="5" max="5" width="13" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="13.25" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="13.21875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -638,7 +641,7 @@
       <c r="C1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -651,7 +654,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -674,7 +677,7 @@
         <v>15120065365</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -693,7 +696,7 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -716,7 +719,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -753,13 +756,13 @@
       <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="17" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="10.375" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="10.33203125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -776,7 +779,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -793,7 +796,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -810,7 +813,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -841,14 +844,14 @@
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="15.375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="11.625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="10.6640625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="15.33203125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="11.6640625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -865,7 +868,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -882,7 +885,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -910,17 +913,17 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="10.625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="11.375" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="13.25" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="24.33203125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="11.33203125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="13.21875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -940,7 +943,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -950,7 +953,7 @@
       <c r="C2" s="1">
         <v>188</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="5">
         <v>44919</v>
       </c>
       <c r="E2" s="1">
@@ -960,7 +963,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -970,8 +973,8 @@
       <c r="C3" s="1">
         <v>288</v>
       </c>
-      <c r="D3" s="2">
-        <v>44926</v>
+      <c r="D3" s="5">
+        <v>44894</v>
       </c>
       <c r="E3" s="1">
         <v>2</v>

--- a/src/main/resources/Database.xlsx
+++ b/src/main/resources/Database.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\IdeaProject\Coffee_shop\src\main\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alexander\IdeaProjects\Coffee_shop\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A6F6C55-80A5-48FA-A2F1-CA7D1A54D2F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32522D05-0EA0-416D-B547-0A579CCBFB38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2616" yWindow="2616" windowWidth="17280" windowHeight="8964" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4755" yWindow="1875" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AdminUser" sheetId="1" r:id="rId1"/>
@@ -524,12 +524,12 @@
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="4" max="4" width="11.88671875" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11.875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -543,7 +543,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -557,7 +557,7 @@
         <v>13100008888</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -567,7 +567,7 @@
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -577,7 +577,7 @@
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -587,7 +587,7 @@
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
@@ -597,7 +597,7 @@
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>43</v>
       </c>
@@ -621,17 +621,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="5" max="5" width="13" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="13.21875" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="13.25" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -654,7 +654,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -671,13 +671,13 @@
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>123</v>
+        <v>123456</v>
       </c>
       <c r="G2" s="1">
         <v>15120065365</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -693,10 +693,12 @@
       <c r="E3" s="1">
         <v>10</v>
       </c>
-      <c r="F3" s="1"/>
+      <c r="F3" s="1">
+        <v>123456</v>
+      </c>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -719,7 +721,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -756,13 +758,13 @@
       <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="4" max="4" width="17" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="10.33203125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="10.375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -779,7 +781,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -796,7 +798,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -813,7 +815,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -844,14 +846,14 @@
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="10.6640625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="15.33203125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="11.6640625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="10.625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="15.375" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="11.625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -868,7 +870,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -885,7 +887,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -912,18 +914,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="4" max="4" width="24.33203125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="11.33203125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="13.21875" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="24.375" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="11.375" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="13.25" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -943,7 +945,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -963,7 +965,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>2</v>
       </c>

--- a/src/main/resources/Database.xlsx
+++ b/src/main/resources/Database.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25726"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alexander\IdeaProjects\Coffee_shop\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32522D05-0EA0-416D-B547-0A579CCBFB38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C77CAEB8-6D86-4872-A82A-79314DCED538}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4755" yWindow="1875" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4755" yWindow="1875" windowWidth="21600" windowHeight="11385" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AdminUser" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="42">
   <si>
     <t>id</t>
   </si>
@@ -86,55 +86,16 @@
     <t>Mocca</t>
   </si>
   <si>
-    <t>RMB 30</t>
-  </si>
-  <si>
-    <t>100(库存)</t>
-  </si>
-  <si>
-    <t>20(销量)</t>
-  </si>
-  <si>
     <t>Cappuccino</t>
   </si>
   <si>
-    <t>RMB 32</t>
-  </si>
-  <si>
-    <t>200(库存)</t>
-  </si>
-  <si>
-    <t>40(销量)</t>
-  </si>
-  <si>
     <t>Latte</t>
   </si>
   <si>
-    <t>RMB 36</t>
-  </si>
-  <si>
-    <t>180(库存)</t>
-  </si>
-  <si>
-    <t>50(销量)</t>
-  </si>
-  <si>
     <t>ice cream</t>
   </si>
   <si>
-    <t>RMB 10</t>
-  </si>
-  <si>
-    <t>30(销量)</t>
-  </si>
-  <si>
     <t>cake</t>
-  </si>
-  <si>
-    <t>RMB 20</t>
-  </si>
-  <si>
-    <t>150(库存)</t>
   </si>
   <si>
     <t>bookDate</t>
@@ -175,6 +136,21 @@
   </si>
   <si>
     <t>9</t>
+  </si>
+  <si>
+    <t>wyw</t>
+  </si>
+  <si>
+    <t>binghongcha</t>
+  </si>
+  <si>
+    <t>30.0</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>cookie</t>
   </si>
 </sst>
 </file>
@@ -526,7 +502,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="4" max="4" width="11.875" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" customWidth="true" width="11.875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
@@ -537,7 +513,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -599,16 +575,16 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="B7" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="C7" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="D7" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -619,16 +595,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="5" max="5" width="13" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="13.25" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="13.25" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
@@ -703,22 +679,22 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="C4" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="D4" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="E4" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="F4" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
@@ -726,22 +702,45 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="C5" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="D5" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="E5" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="F5" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -752,16 +751,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="4" max="4" width="17" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="10.375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" customWidth="true" width="17.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="10.375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
@@ -788,14 +787,14 @@
       <c r="B2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="1">
+        <v>30</v>
+      </c>
+      <c r="D2" s="1">
+        <v>100</v>
+      </c>
+      <c r="E2" s="1">
         <v>20</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
@@ -803,16 +802,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
+      </c>
+      <c r="C3" s="1">
+        <v>32</v>
+      </c>
+      <c r="D3" s="1">
+        <v>200</v>
+      </c>
+      <c r="E3" s="1">
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
@@ -820,16 +819,33 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>30</v>
+        <v>21</v>
+      </c>
+      <c r="C4" s="1">
+        <v>36</v>
+      </c>
+      <c r="D4" s="1">
+        <v>180</v>
+      </c>
+      <c r="E4" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -840,17 +856,17 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="10.625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="15.375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="11.625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" customWidth="true" width="10.625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="15.375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="11.625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
@@ -875,16 +891,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>33</v>
+        <v>22</v>
+      </c>
+      <c r="C2" s="1">
+        <v>10</v>
+      </c>
+      <c r="D2" s="1">
+        <v>200</v>
+      </c>
+      <c r="E2" s="1">
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
@@ -892,16 +908,33 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="1">
+        <v>20</v>
+      </c>
+      <c r="D3" s="1">
+        <v>150</v>
+      </c>
+      <c r="E3" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4" t="s">
         <v>35</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -920,9 +953,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="4" max="4" width="24.375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="11.375" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="13.25" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" customWidth="true" width="24.375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="11.375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="13.25" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
@@ -936,13 +969,13 @@
         <v>16</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
@@ -950,7 +983,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="C2" s="1">
         <v>188</v>
@@ -970,7 +1003,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="C3" s="1">
         <v>288</v>

--- a/src/main/resources/Database.xlsx
+++ b/src/main/resources/Database.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25726"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alexander\IdeaProjects\Coffee_shop\src\main\resources\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32522D05-0EA0-416D-B547-0A579CCBFB38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4755" yWindow="1875" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="18468" windowHeight="9420" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="AdminUser" sheetId="1" r:id="rId1"/>
@@ -18,13 +12,14 @@
     <sheet name="Drink" sheetId="3" r:id="rId3"/>
     <sheet name="Food" sheetId="4" r:id="rId4"/>
     <sheet name="Room" sheetId="5" r:id="rId5"/>
+    <sheet name="SalesRecord" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="42">
   <si>
     <t>id</t>
   </si>
@@ -32,6 +27,9 @@
     <t>name</t>
   </si>
   <si>
+    <t>passWord</t>
+  </si>
+  <si>
     <t>phoneNumber</t>
   </si>
   <si>
@@ -50,6 +48,18 @@
     <t>5</t>
   </si>
   <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>haichao</t>
+  </si>
+  <si>
+    <t>123456</t>
+  </si>
+  <si>
+    <t>1828888888</t>
+  </si>
+  <si>
     <t>gender</t>
   </si>
   <si>
@@ -59,9 +69,6 @@
     <t>loyaltyCard</t>
   </si>
   <si>
-    <t>passWord</t>
-  </si>
-  <si>
     <t>Nancy</t>
   </si>
   <si>
@@ -74,6 +81,15 @@
     <t>Male</t>
   </si>
   <si>
+    <t>unknown</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
     <t>price</t>
   </si>
   <si>
@@ -86,57 +102,18 @@
     <t>Mocca</t>
   </si>
   <si>
-    <t>RMB 30</t>
-  </si>
-  <si>
-    <t>100(库存)</t>
-  </si>
-  <si>
-    <t>20(销量)</t>
-  </si>
-  <si>
     <t>Cappuccino</t>
   </si>
   <si>
-    <t>RMB 32</t>
-  </si>
-  <si>
-    <t>200(库存)</t>
-  </si>
-  <si>
-    <t>40(销量)</t>
-  </si>
-  <si>
     <t>Latte</t>
   </si>
   <si>
-    <t>RMB 36</t>
-  </si>
-  <si>
-    <t>180(库存)</t>
-  </si>
-  <si>
-    <t>50(销量)</t>
-  </si>
-  <si>
     <t>ice cream</t>
   </si>
   <si>
-    <t>RMB 10</t>
-  </si>
-  <si>
-    <t>30(销量)</t>
-  </si>
-  <si>
     <t>cake</t>
   </si>
   <si>
-    <t>RMB 20</t>
-  </si>
-  <si>
-    <t>150(库存)</t>
-  </si>
-  <si>
     <t>bookDate</t>
   </si>
   <si>
@@ -152,39 +129,36 @@
     <t>波斯湾</t>
   </si>
   <si>
-    <t>passWord</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>haichao</t>
-  </si>
-  <si>
-    <t>123456</t>
-  </si>
-  <si>
-    <t>1828888888</t>
-  </si>
-  <si>
-    <t>unknown</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>9</t>
+    <t>productID</t>
+  </si>
+  <si>
+    <t>productName</t>
+  </si>
+  <si>
+    <t>buyNumber</t>
+  </si>
+  <si>
+    <t>userid</t>
+  </si>
+  <si>
+    <t>payCost</t>
+  </si>
+  <si>
+    <t>payTime</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="5">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="yyyy/mm/dd;@"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -193,30 +167,345 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -224,37 +513,329 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -512,482 +1093,555 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.87962962962963" defaultRowHeight="14.4" outlineLevelRow="6" outlineLevelCol="3"/>
   <cols>
-    <col min="4" max="4" width="11.875" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11.8796296296296" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A2" s="3">
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="7">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="1">
+      <c r="B2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="3">
         <v>123456</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="3">
         <v>13100008888</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="1" t="s">
+    <row r="3" spans="1:4">
+      <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="1" t="s">
+      <c r="B3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A5" s="1" t="s">
+      <c r="B4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A6" s="1" t="s">
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="D7" t="s">
-        <v>46</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.87962962962963" defaultRowHeight="14.4" outlineLevelRow="4" outlineLevelCol="6"/>
   <cols>
-    <col min="5" max="5" width="13" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="13.25" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13" customWidth="1"/>
+    <col min="7" max="7" width="13.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="C1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="3">
+        <v>1</v>
+      </c>
+      <c r="E2" s="3">
+        <v>0</v>
+      </c>
+      <c r="F2" s="3">
+        <v>123456</v>
+      </c>
+      <c r="G2" s="3">
+        <v>15120065365</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="3">
+        <v>0</v>
+      </c>
+      <c r="E3" s="3">
         <v>10</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F3" s="3">
+        <v>123456</v>
+      </c>
+      <c r="G3" s="3"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
+      <c r="G4" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="1">
-        <v>1</v>
-      </c>
-      <c r="E2" s="1">
-        <v>0</v>
-      </c>
-      <c r="F2" s="1">
-        <v>123456</v>
-      </c>
-      <c r="G2" s="1">
-        <v>15120065365</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="1">
-        <v>0</v>
-      </c>
-      <c r="E3" s="1">
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="1">
-        <v>123456</v>
-      </c>
-      <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D4" t="s">
-        <v>48</v>
-      </c>
-      <c r="E4" t="s">
-        <v>49</v>
-      </c>
-      <c r="F4" t="s">
-        <v>45</v>
-      </c>
-      <c r="G4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>44</v>
-      </c>
       <c r="C5" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="D5" t="s">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="E5" t="s">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="F5" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.87962962962963" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="4"/>
   <cols>
-    <col min="4" max="4" width="17" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="10.375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="17" customWidth="1"/>
+    <col min="5" max="5" width="10.3796296296296" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A2" s="1">
+      <c r="C1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="B2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="3">
+        <v>30</v>
+      </c>
+      <c r="D2" s="3">
+        <v>100</v>
+      </c>
+      <c r="E2" s="3">
         <v>20</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A3" s="1">
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A4" s="1">
+      <c r="B3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="3">
+        <v>32</v>
+      </c>
+      <c r="D3" s="3">
+        <v>200</v>
+      </c>
+      <c r="E3" s="3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" s="1" t="s">
+      <c r="B4" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>30</v>
+      <c r="C4" s="3">
+        <v>36</v>
+      </c>
+      <c r="D4" s="3">
+        <v>180</v>
+      </c>
+      <c r="E4" s="3">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.87962962962963" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="4"/>
   <cols>
-    <col min="2" max="2" width="10.625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="15.375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="11.625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="10.6296296296296" customWidth="1"/>
+    <col min="4" max="4" width="15.3796296296296" customWidth="1"/>
+    <col min="5" max="5" width="11.6296296296296" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A2" s="1">
+      <c r="C1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A3" s="1">
+      <c r="B2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="3">
+        <v>10</v>
+      </c>
+      <c r="D2" s="3">
+        <v>200</v>
+      </c>
+      <c r="E2" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E3" s="1" t="s">
+      <c r="B3" s="3" t="s">
         <v>30</v>
       </c>
+      <c r="C3" s="3">
+        <v>20</v>
+      </c>
+      <c r="D3" s="3">
+        <v>150</v>
+      </c>
+      <c r="E3" s="3">
+        <v>50</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.87962962962963" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="5"/>
   <cols>
-    <col min="4" max="4" width="24.375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="11.375" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="13.25" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="24.3796296296296" customWidth="1"/>
+    <col min="5" max="5" width="11.3796296296296" customWidth="1"/>
+    <col min="6" max="6" width="13.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="C1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="3">
+        <v>188</v>
+      </c>
+      <c r="D2" s="4">
+        <v>44919</v>
+      </c>
+      <c r="E2" s="3">
+        <v>1</v>
+      </c>
+      <c r="F2" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="3">
+        <v>288</v>
+      </c>
+      <c r="D3" s="4">
+        <v>44894</v>
+      </c>
+      <c r="E3" s="3">
+        <v>2</v>
+      </c>
+      <c r="F3" s="3">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:G2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="6"/>
+  <cols>
+    <col min="2" max="2" width="14" customWidth="1"/>
+    <col min="3" max="3" width="12.3333333333333" customWidth="1"/>
+    <col min="4" max="4" width="9.88888888888889" customWidth="1"/>
+    <col min="7" max="7" width="12.6666666666667" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" t="s">
         <v>37</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="D1" t="s">
         <v>38</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="E1" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="F1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C2" s="1">
-        <v>188</v>
-      </c>
-      <c r="D2" s="5">
-        <v>44919</v>
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1</v>
       </c>
       <c r="E2" s="1">
         <v>1</v>
       </c>
       <c r="F2" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C3" s="1">
-        <v>288</v>
-      </c>
-      <c r="D3" s="5">
-        <v>44894</v>
-      </c>
-      <c r="E3" s="1">
-        <v>2</v>
-      </c>
-      <c r="F3" s="1">
-        <v>15</v>
+        <v>30</v>
+      </c>
+      <c r="G2" s="2">
+        <v>44896</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/src/main/resources/Database.xlsx
+++ b/src/main/resources/Database.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25726"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent>
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alexander\IdeaProjects\Coffee_shop\src\main\resources\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32522D05-0EA0-416D-B547-0A579CCBFB38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4755" yWindow="1875" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="18468" windowHeight="9420" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="AdminUser" sheetId="1" r:id="rId1"/>
@@ -18,13 +12,14 @@
     <sheet name="Drink" sheetId="3" r:id="rId3"/>
     <sheet name="Food" sheetId="4" r:id="rId4"/>
     <sheet name="Room" sheetId="5" r:id="rId5"/>
+    <sheet name="SalesRecord" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="84">
   <si>
     <t>id</t>
   </si>
@@ -32,6 +27,9 @@
     <t>name</t>
   </si>
   <si>
+    <t>passWord</t>
+  </si>
+  <si>
     <t>phoneNumber</t>
   </si>
   <si>
@@ -50,6 +48,18 @@
     <t>5</t>
   </si>
   <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>haichao</t>
+  </si>
+  <si>
+    <t>123456</t>
+  </si>
+  <si>
+    <t>1828888888</t>
+  </si>
+  <si>
     <t>gender</t>
   </si>
   <si>
@@ -59,9 +69,6 @@
     <t>loyaltyCard</t>
   </si>
   <si>
-    <t>passWord</t>
-  </si>
-  <si>
     <t>Nancy</t>
   </si>
   <si>
@@ -74,6 +81,15 @@
     <t>Male</t>
   </si>
   <si>
+    <t>unknown</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
     <t>price</t>
   </si>
   <si>
@@ -86,57 +102,18 @@
     <t>Mocca</t>
   </si>
   <si>
-    <t>RMB 30</t>
-  </si>
-  <si>
-    <t>100(库存)</t>
-  </si>
-  <si>
-    <t>20(销量)</t>
-  </si>
-  <si>
     <t>Cappuccino</t>
   </si>
   <si>
-    <t>RMB 32</t>
-  </si>
-  <si>
-    <t>200(库存)</t>
-  </si>
-  <si>
-    <t>40(销量)</t>
-  </si>
-  <si>
     <t>Latte</t>
   </si>
   <si>
-    <t>RMB 36</t>
-  </si>
-  <si>
-    <t>180(库存)</t>
-  </si>
-  <si>
-    <t>50(销量)</t>
-  </si>
-  <si>
     <t>ice cream</t>
   </si>
   <si>
-    <t>RMB 10</t>
-  </si>
-  <si>
-    <t>30(销量)</t>
-  </si>
-  <si>
     <t>cake</t>
   </si>
   <si>
-    <t>RMB 20</t>
-  </si>
-  <si>
-    <t>150(库存)</t>
-  </si>
-  <si>
     <t>bookDate</t>
   </si>
   <si>
@@ -152,57 +129,162 @@
     <t>波斯湾</t>
   </si>
   <si>
-    <t>passWord</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>haichao</t>
-  </si>
-  <si>
-    <t>123456</t>
-  </si>
-  <si>
-    <t>1828888888</t>
-  </si>
-  <si>
-    <t>unknown</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>9</t>
+    <t>productID</t>
+  </si>
+  <si>
+    <t>productName</t>
+  </si>
+  <si>
+    <t>buyNumber</t>
+  </si>
+  <si>
+    <t>userid</t>
+  </si>
+  <si>
+    <t>payCost</t>
+  </si>
+  <si>
+    <t>payTime</t>
+  </si>
+  <si>
+    <t>888</t>
+  </si>
+  <si>
+    <t>654321</t>
+  </si>
+  <si>
+    <t>1828889999</t>
+  </si>
+  <si>
+    <t>zhanghaichao</t>
+  </si>
+  <si>
+    <t>cookie</t>
+  </si>
+  <si>
+    <t>30.0</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>16.0</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>200</t>
+  </si>
+  <si>
+    <t>15120065365</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>199</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>197</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>98</t>
+  </si>
+  <si>
+    <t>Chicken</t>
+  </si>
+  <si>
+    <t>15.0</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>19.9</t>
+  </si>
+  <si>
+    <t>ice ream</t>
+  </si>
+  <si>
+    <t>29.9</t>
+  </si>
+  <si>
+    <t>666</t>
+  </si>
+  <si>
+    <t>Secret</t>
+  </si>
+  <si>
+    <t>0.0</t>
+  </si>
+  <si>
+    <t>1000</t>
+  </si>
+  <si>
+    <t>10.0</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>latte</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>198</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>196</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>96</t>
+  </si>
+  <si>
+    <t>wyw</t>
+  </si>
+  <si>
+    <t>FEMALE</t>
   </si>
   <si>
     <t>null</t>
-  </si>
-  <si>
-    <t>FEMALE</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>yolanda</t>
-  </si>
-  <si>
-    <t>234567</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="5">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="yyyy/mm/dd;@"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -211,30 +293,345 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -242,37 +639,329 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -530,551 +1219,612 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.87962962962963" defaultRowHeight="14.4" outlineLevelRow="6" outlineLevelCol="3"/>
   <cols>
-    <col min="4" max="4" customWidth="true" width="11.875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.8796296296296" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A2" s="3">
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="7">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="1">
+      <c r="B2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="3">
         <v>123456</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="3">
         <v>13100008888</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="1" t="s">
+    <row r="3" spans="1:4">
+      <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="1" t="s">
+      <c r="B3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A5" s="1" t="s">
+      <c r="B4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A6" s="1" t="s">
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="D7" t="s">
-        <v>46</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.87962962962963" defaultRowHeight="14.4" outlineLevelRow="4" outlineLevelCol="6"/>
   <cols>
     <col min="5" max="5" customWidth="true" width="13.0" collapsed="true"/>
     <col min="7" max="7" customWidth="true" width="13.25" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="C1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="3">
+        <v>0</v>
+      </c>
+      <c r="E3" s="3">
         <v>10</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F3" s="3">
+        <v>123456</v>
+      </c>
+      <c r="G3" s="3"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
+      <c r="G4" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="1">
-        <v>1</v>
-      </c>
-      <c r="E2" s="1">
-        <v>0</v>
-      </c>
-      <c r="F2" s="1">
-        <v>123456</v>
-      </c>
-      <c r="G2" s="1">
-        <v>15120065365</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="1">
-        <v>0</v>
-      </c>
-      <c r="E3" s="1">
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="1">
-        <v>123456</v>
-      </c>
-      <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D4" t="s">
-        <v>48</v>
-      </c>
-      <c r="E4" t="s">
-        <v>49</v>
-      </c>
-      <c r="F4" t="s">
-        <v>45</v>
-      </c>
-      <c r="G4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>44</v>
-      </c>
       <c r="C5" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="D5" t="s">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="E5" t="s">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="F5" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>50</v>
+        <v>81</v>
       </c>
       <c r="C6" t="s">
-        <v>51</v>
+        <v>82</v>
       </c>
       <c r="D6" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="E6" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="F6" t="s">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="G6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>43</v>
-      </c>
-      <c r="B7" t="s">
-        <v>50</v>
-      </c>
-      <c r="C7" t="s">
-        <v>51</v>
-      </c>
-      <c r="D7" t="s">
-        <v>52</v>
-      </c>
-      <c r="E7" t="s">
-        <v>52</v>
-      </c>
-      <c r="F7" t="s">
-        <v>50</v>
-      </c>
-      <c r="G7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>53</v>
-      </c>
-      <c r="B8" t="s">
-        <v>54</v>
-      </c>
-      <c r="C8" t="s">
-        <v>51</v>
-      </c>
-      <c r="D8" t="s">
-        <v>48</v>
-      </c>
-      <c r="E8" t="s">
-        <v>52</v>
-      </c>
-      <c r="F8" t="s">
-        <v>45</v>
-      </c>
-      <c r="G8" t="s">
-        <v>50</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:E4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.87962962962963" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="4"/>
   <cols>
     <col min="4" max="4" customWidth="true" width="17.0" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="10.375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="10.3796296296296" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="C1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A3" s="1">
+      <c r="B2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A4" s="1">
+      <c r="B3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="3">
+        <v>32</v>
+      </c>
+      <c r="D3" s="3">
+        <v>200</v>
+      </c>
+      <c r="E3" s="3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" s="1" t="s">
+      <c r="B4" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>30</v>
+      <c r="C4" s="3">
+        <v>36</v>
+      </c>
+      <c r="D4" s="3">
+        <v>180</v>
+      </c>
+      <c r="E4" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D5" t="s">
+        <v>71</v>
+      </c>
+      <c r="E5" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:E3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.87962962962963" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="4"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="10.625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="15.375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="11.625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="10.6296296296296" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="15.3796296296296" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="11.6296296296296" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="C1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A3" s="1">
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E3" s="1" t="s">
+      <c r="B3" s="3" t="s">
         <v>30</v>
       </c>
+      <c r="C3" s="3">
+        <v>20</v>
+      </c>
+      <c r="D3" s="3">
+        <v>150</v>
+      </c>
+      <c r="E3" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E4" t="s">
+        <v>21</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.87962962962963" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="5"/>
   <cols>
-    <col min="4" max="4" customWidth="true" width="24.375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="11.375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="24.3796296296296" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="11.3796296296296" collapsed="true"/>
     <col min="6" max="6" customWidth="true" width="13.25" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="C1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="3">
+        <v>188</v>
+      </c>
+      <c r="D2" s="4">
+        <v>44919</v>
+      </c>
+      <c r="E2" s="3">
+        <v>1</v>
+      </c>
+      <c r="F2" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="3">
+        <v>288</v>
+      </c>
+      <c r="D3" s="4">
+        <v>44894</v>
+      </c>
+      <c r="E3" s="3">
+        <v>2</v>
+      </c>
+      <c r="F3" s="3">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:G2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="6"/>
+  <cols>
+    <col min="2" max="2" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="12.3333333333333" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="9.88888888888889" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="12.6666666666667" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" t="s">
         <v>37</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="D1" t="s">
         <v>38</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="E1" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="F1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C2" s="1">
-        <v>188</v>
-      </c>
-      <c r="D2" s="5">
-        <v>44919</v>
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1</v>
       </c>
       <c r="E2" s="1">
         <v>1</v>
       </c>
       <c r="F2" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C3" s="1">
-        <v>288</v>
-      </c>
-      <c r="D3" s="5">
-        <v>44894</v>
-      </c>
-      <c r="E3" s="1">
-        <v>2</v>
-      </c>
-      <c r="F3" s="1">
-        <v>15</v>
+        <v>30</v>
+      </c>
+      <c r="G2" s="2">
+        <v>44896</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/src/main/resources/Database.xlsx
+++ b/src/main/resources/Database.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="86">
   <si>
     <t>id</t>
   </si>
@@ -271,6 +271,12 @@
   </si>
   <si>
     <t>null</t>
+  </si>
+  <si>
+    <t>2022-12-10</t>
+  </si>
+  <si>
+    <t>188.0</t>
   </si>
 </sst>
 </file>
@@ -1714,23 +1720,23 @@
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="3">
-        <v>1</v>
+      <c r="A2" s="3" t="s">
+        <v>21</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="3">
-        <v>188</v>
-      </c>
-      <c r="D2" s="4">
-        <v>44919</v>
-      </c>
-      <c r="E2" s="3">
-        <v>1</v>
-      </c>
-      <c r="F2" s="3">
-        <v>10</v>
+      <c r="C2" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:6">

--- a/src/main/resources/Database.xlsx
+++ b/src/main/resources/Database.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="85">
   <si>
     <t>id</t>
   </si>
@@ -262,6 +262,18 @@
   </si>
   <si>
     <t>96</t>
+  </si>
+  <si>
+    <t>666.0</t>
+  </si>
+  <si>
+    <t>78.0</t>
+  </si>
+  <si>
+    <t>100.0</t>
+  </si>
+  <si>
+    <t>Orange</t>
   </si>
 </sst>
 </file>
@@ -1452,7 +1464,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
@@ -1546,6 +1558,23 @@
         <v>71</v>
       </c>
       <c r="E5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E6" t="s">
         <v>64</v>
       </c>
     </row>
@@ -1593,7 +1622,7 @@
         <v>21</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>65</v>

--- a/src/main/resources/Database.xlsx
+++ b/src/main/resources/Database.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="131">
   <si>
     <t>id</t>
   </si>
@@ -262,6 +262,156 @@
   </si>
   <si>
     <t>96</t>
+  </si>
+  <si>
+    <t>20.0</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>149</t>
+  </si>
+  <si>
+    <t>yolanda</t>
+  </si>
+  <si>
+    <t>FEMALE</t>
+  </si>
+  <si>
+    <t>12332112345</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>195</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>140</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>194</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>139</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>185</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>184</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>183</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>182</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>181</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>180</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>179</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>178</t>
+  </si>
+  <si>
+    <t>177</t>
+  </si>
+  <si>
+    <t>176</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>175</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>174</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>173</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>172</t>
+  </si>
+  <si>
+    <t>999</t>
+  </si>
+  <si>
+    <t>ddd</t>
+  </si>
+  <si>
+    <t>234567</t>
+  </si>
+  <si>
+    <t>12345678901</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>171</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>13</t>
   </si>
 </sst>
 </file>
@@ -1318,7 +1468,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E31" sqref="E31"/>
@@ -1443,6 +1593,52 @@
         <v>12</v>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C6" t="s">
+        <v>85</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" t="s">
+        <v>73</v>
+      </c>
+      <c r="F6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>124</v>
+      </c>
+      <c r="C7" t="s">
+        <v>85</v>
+      </c>
+      <c r="D7" t="s">
+        <v>64</v>
+      </c>
+      <c r="E7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" t="s">
+        <v>125</v>
+      </c>
+      <c r="G7" t="s">
+        <v>126</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -1452,7 +1648,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
@@ -1543,9 +1739,26 @@
         <v>70</v>
       </c>
       <c r="D5" t="s">
-        <v>71</v>
+        <v>123</v>
       </c>
       <c r="E5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E6" t="s">
         <v>64</v>
       </c>
     </row>
@@ -1593,33 +1806,33 @@
         <v>21</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>65</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>78</v>
+        <v>123</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>77</v>
+        <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="3">
-        <v>2</v>
+      <c r="A3" s="3" t="s">
+        <v>55</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="3">
-        <v>20</v>
-      </c>
-      <c r="D3" s="3">
-        <v>150</v>
-      </c>
-      <c r="E3" s="3">
-        <v>50</v>
+      <c r="C3" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="4">

--- a/src/main/resources/Database.xlsx
+++ b/src/main/resources/Database.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="133">
   <si>
     <t>id</t>
   </si>
@@ -412,6 +412,12 @@
   </si>
   <si>
     <t>13</t>
+  </si>
+  <si>
+    <t>2022-12-11</t>
+  </si>
+  <si>
+    <t>188.0</t>
   </si>
 </sst>
 </file>
@@ -1648,7 +1654,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
@@ -1743,23 +1749,6 @@
       </c>
       <c r="E5" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C6" t="s">
-        <v>47</v>
-      </c>
-      <c r="D6" t="s">
-        <v>48</v>
-      </c>
-      <c r="E6" t="s">
-        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -1895,23 +1884,23 @@
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="3">
-        <v>1</v>
+      <c r="A2" s="3" t="s">
+        <v>21</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="3">
-        <v>188</v>
-      </c>
-      <c r="D2" s="4">
-        <v>44919</v>
-      </c>
-      <c r="E2" s="3">
-        <v>1</v>
-      </c>
-      <c r="F2" s="3">
-        <v>10</v>
+      <c r="C2" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:6">

--- a/src/main/resources/Database.xlsx
+++ b/src/main/resources/Database.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="42">
   <si>
     <t>id</t>
   </si>
@@ -145,18 +145,6 @@
   </si>
   <si>
     <t>payTime</t>
-  </si>
-  <si>
-    <t>888</t>
-  </si>
-  <si>
-    <t>654321</t>
-  </si>
-  <si>
-    <t>1828889999</t>
-  </si>
-  <si>
-    <t>zhanghaichao</t>
   </si>
 </sst>
 </file>
@@ -1119,7 +1107,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.87962962962963" defaultRowHeight="14.4" outlineLevelRow="6" outlineLevelCol="3"/>
   <cols>
-    <col min="4" max="4" customWidth="true" width="11.8796296296296" collapsed="true"/>
+    <col min="4" max="4" width="11.8796296296296" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1221,8 +1209,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.87962962962963" defaultRowHeight="14.4" outlineLevelRow="4" outlineLevelCol="6"/>
   <cols>
-    <col min="5" max="5" customWidth="true" width="13.0" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="13.25" collapsed="true"/>
+    <col min="5" max="5" width="13" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="13.25" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1355,8 +1343,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.87962962962963" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="4"/>
   <cols>
-    <col min="4" max="4" customWidth="true" width="17.0" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="10.3796296296296" collapsed="true"/>
+    <col min="4" max="4" width="17" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="10.3796296296296" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -1444,9 +1432,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.87962962962963" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="4"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="10.6296296296296" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="15.3796296296296" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="11.6296296296296" collapsed="true"/>
+    <col min="2" max="2" width="10.6296296296296" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="15.3796296296296" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="11.6296296296296" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -1517,9 +1505,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.87962962962963" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="5"/>
   <cols>
-    <col min="4" max="4" customWidth="true" width="24.3796296296296" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="11.3796296296296" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="13.25" collapsed="true"/>
+    <col min="4" max="4" width="24.3796296296296" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="11.3796296296296" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="13.25" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -1600,10 +1588,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="6"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="12.3333333333333" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="9.88888888888889" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="12.6666666666667" collapsed="true"/>
+    <col min="2" max="2" width="14" customWidth="1"/>
+    <col min="3" max="3" width="12.3333333333333" customWidth="1"/>
+    <col min="4" max="4" width="9.88888888888889" customWidth="1"/>
+    <col min="7" max="7" width="12.6666666666667" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">

--- a/src/main/resources/Database.xlsx
+++ b/src/main/resources/Database.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="133">
   <si>
     <t>id</t>
   </si>
@@ -264,16 +264,160 @@
     <t>96</t>
   </si>
   <si>
-    <t>666.0</t>
-  </si>
-  <si>
-    <t>78.0</t>
-  </si>
-  <si>
-    <t>100.0</t>
-  </si>
-  <si>
-    <t>Orange</t>
+    <t>20.0</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>149</t>
+  </si>
+  <si>
+    <t>yolanda</t>
+  </si>
+  <si>
+    <t>FEMALE</t>
+  </si>
+  <si>
+    <t>12332112345</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>195</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>140</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>194</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>139</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>185</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>184</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>183</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>182</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>181</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>180</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>179</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>178</t>
+  </si>
+  <si>
+    <t>177</t>
+  </si>
+  <si>
+    <t>176</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>175</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>174</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>173</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>172</t>
+  </si>
+  <si>
+    <t>999</t>
+  </si>
+  <si>
+    <t>ddd</t>
+  </si>
+  <si>
+    <t>234567</t>
+  </si>
+  <si>
+    <t>12345678901</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>171</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>2022-12-11</t>
+  </si>
+  <si>
+    <t>188.0</t>
   </si>
 </sst>
 </file>
@@ -1330,7 +1474,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E31" sqref="E31"/>
@@ -1455,6 +1599,52 @@
         <v>12</v>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C6" t="s">
+        <v>85</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" t="s">
+        <v>73</v>
+      </c>
+      <c r="F6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>124</v>
+      </c>
+      <c r="C7" t="s">
+        <v>85</v>
+      </c>
+      <c r="D7" t="s">
+        <v>64</v>
+      </c>
+      <c r="E7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" t="s">
+        <v>125</v>
+      </c>
+      <c r="G7" t="s">
+        <v>126</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -1464,7 +1654,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
@@ -1555,27 +1745,10 @@
         <v>70</v>
       </c>
       <c r="D5" t="s">
-        <v>71</v>
+        <v>123</v>
       </c>
       <c r="E5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" t="s">
-        <v>84</v>
-      </c>
-      <c r="C6" t="s">
-        <v>67</v>
-      </c>
-      <c r="D6" t="s">
-        <v>51</v>
-      </c>
-      <c r="E6" t="s">
-        <v>64</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -1628,27 +1801,27 @@
         <v>65</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>78</v>
+        <v>123</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>77</v>
+        <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="3">
-        <v>2</v>
+      <c r="A3" s="3" t="s">
+        <v>55</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="3">
-        <v>20</v>
-      </c>
-      <c r="D3" s="3">
-        <v>150</v>
-      </c>
-      <c r="E3" s="3">
-        <v>50</v>
+      <c r="C3" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="4">
@@ -1711,23 +1884,23 @@
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="3">
-        <v>1</v>
+      <c r="A2" s="3" t="s">
+        <v>21</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="3">
-        <v>188</v>
-      </c>
-      <c r="D2" s="4">
-        <v>44919</v>
-      </c>
-      <c r="E2" s="3">
-        <v>1</v>
-      </c>
-      <c r="F2" s="3">
-        <v>10</v>
+      <c r="C2" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:6">

--- a/src/main/resources/Database.xlsx
+++ b/src/main/resources/Database.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="136">
   <si>
     <t>id</t>
   </si>
@@ -418,6 +418,15 @@
   </si>
   <si>
     <t>188.0</t>
+  </si>
+  <si>
+    <t>yyy</t>
+  </si>
+  <si>
+    <t>null</t>
+  </si>
+  <si>
+    <t>12234567890</t>
   </si>
 </sst>
 </file>
@@ -1601,48 +1610,48 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>84</v>
+        <v>124</v>
       </c>
       <c r="C6" t="s">
         <v>85</v>
       </c>
       <c r="D6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E6" t="s">
         <v>21</v>
       </c>
-      <c r="E6" t="s">
-        <v>73</v>
-      </c>
       <c r="F6" t="s">
-        <v>11</v>
+        <v>125</v>
       </c>
       <c r="G6" t="s">
-        <v>86</v>
+        <v>126</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>113</v>
       </c>
       <c r="B7" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="C7" t="s">
-        <v>85</v>
+        <v>134</v>
       </c>
       <c r="D7" t="s">
         <v>64</v>
       </c>
       <c r="E7" t="s">
-        <v>21</v>
+        <v>64</v>
       </c>
       <c r="F7" t="s">
-        <v>125</v>
+        <v>11</v>
       </c>
       <c r="G7" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/Database.xlsx
+++ b/src/main/resources/Database.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="139">
   <si>
     <t>id</t>
   </si>
@@ -420,13 +420,22 @@
     <t>188.0</t>
   </si>
   <si>
-    <t>yyy</t>
-  </si>
-  <si>
-    <t>null</t>
-  </si>
-  <si>
-    <t>12234567890</t>
+    <t>138</t>
+  </si>
+  <si>
+    <t>19.0</t>
+  </si>
+  <si>
+    <t>32.0</t>
+  </si>
+  <si>
+    <t>30.4</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>998</t>
   </si>
 </sst>
 </file>
@@ -1610,48 +1619,48 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>124</v>
+        <v>84</v>
       </c>
       <c r="C6" t="s">
         <v>85</v>
       </c>
       <c r="D6" t="s">
-        <v>64</v>
+        <v>21</v>
       </c>
       <c r="E6" t="s">
-        <v>21</v>
+        <v>73</v>
       </c>
       <c r="F6" t="s">
-        <v>125</v>
+        <v>11</v>
       </c>
       <c r="G6" t="s">
-        <v>126</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>113</v>
+        <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="C7" t="s">
-        <v>134</v>
+        <v>85</v>
       </c>
       <c r="D7" t="s">
         <v>64</v>
       </c>
       <c r="E7" t="s">
-        <v>64</v>
+        <v>21</v>
       </c>
       <c r="F7" t="s">
-        <v>11</v>
+        <v>125</v>
       </c>
       <c r="G7" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -1710,20 +1719,20 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="3">
-        <v>2</v>
+      <c r="A3" s="3" t="s">
+        <v>55</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="3">
-        <v>32</v>
-      </c>
-      <c r="D3" s="3">
-        <v>200</v>
-      </c>
-      <c r="E3" s="3">
-        <v>40</v>
+      <c r="C3" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1810,10 +1819,10 @@
         <v>65</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>123</v>
+        <v>138</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1827,10 +1836,10 @@
         <v>81</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>94</v>
+        <v>133</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>93</v>
+        <v>114</v>
       </c>
     </row>
     <row r="4">
@@ -1942,7 +1951,7 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:G2"/>
@@ -2002,6 +2011,98 @@
         <v>44896</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" t="s">
+        <v>134</v>
+      </c>
+      <c r="G4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" t="s">
+        <v>136</v>
+      </c>
+      <c r="G5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" t="s">
+        <v>65</v>
+      </c>
+      <c r="G6" t="s">
+        <v>131</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/src/main/resources/Database.xlsx
+++ b/src/main/resources/Database.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="145">
   <si>
     <t>id</t>
   </si>
@@ -436,6 +436,24 @@
   </si>
   <si>
     <t>998</t>
+  </si>
+  <si>
+    <t>Daven</t>
+  </si>
+  <si>
+    <t>SECRET</t>
+  </si>
+  <si>
+    <t>13117826002</t>
+  </si>
+  <si>
+    <t>997</t>
+  </si>
+  <si>
+    <t>996</t>
+  </si>
+  <si>
+    <t>-2</t>
   </si>
 </sst>
 </file>
@@ -1492,7 +1510,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E31" sqref="E31"/>
@@ -1661,6 +1679,29 @@
       </c>
       <c r="G7" t="s">
         <v>126</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>113</v>
+      </c>
+      <c r="B8" t="s">
+        <v>139</v>
+      </c>
+      <c r="C8" t="s">
+        <v>140</v>
+      </c>
+      <c r="D8" t="s">
+        <v>64</v>
+      </c>
+      <c r="E8" t="s">
+        <v>64</v>
+      </c>
+      <c r="F8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" t="s">
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -1763,10 +1804,10 @@
         <v>70</v>
       </c>
       <c r="D5" t="s">
-        <v>123</v>
+        <v>143</v>
       </c>
       <c r="E5" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1951,7 +1992,7 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:G2"/>
@@ -2103,6 +2144,29 @@
         <v>131</v>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C7" t="s">
+        <v>69</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" t="s">
+        <v>144</v>
+      </c>
+      <c r="F7" t="s">
+        <v>70</v>
+      </c>
+      <c r="G7" t="s">
+        <v>131</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/src/main/resources/Database.xlsx
+++ b/src/main/resources/Database.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25831"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alexander\IdeaProjects\Coffee_shop\src\main\resources\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97361364-BAD4-4321-8023-1B8FE06D2B76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="18468" windowHeight="9420" activeTab="5"/>
+    <workbookView xWindow="2940" yWindow="2535" windowWidth="21600" windowHeight="11385" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AdminUser" sheetId="1" r:id="rId1"/>
@@ -19,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="79">
   <si>
     <t>id</t>
   </si>
@@ -147,18 +153,6 @@
     <t>payTime</t>
   </si>
   <si>
-    <t>888</t>
-  </si>
-  <si>
-    <t>654321</t>
-  </si>
-  <si>
-    <t>1828889999</t>
-  </si>
-  <si>
-    <t>zhanghaichao</t>
-  </si>
-  <si>
     <t>cookie</t>
   </si>
   <si>
@@ -168,63 +162,21 @@
     <t>100</t>
   </si>
   <si>
-    <t>16.0</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>200</t>
-  </si>
-  <si>
     <t>15120065365</t>
   </si>
   <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>34</t>
-  </si>
-  <si>
     <t>2</t>
   </si>
   <si>
-    <t>35</t>
-  </si>
-  <si>
     <t>199</t>
   </si>
   <si>
-    <t>37</t>
-  </si>
-  <si>
-    <t>197</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>98</t>
-  </si>
-  <si>
-    <t>Chicken</t>
-  </si>
-  <si>
-    <t>15.0</t>
-  </si>
-  <si>
     <t>0</t>
   </si>
   <si>
     <t>19.9</t>
   </si>
   <si>
-    <t>ice ream</t>
-  </si>
-  <si>
-    <t>29.9</t>
-  </si>
-  <si>
     <t>666</t>
   </si>
   <si>
@@ -234,30 +186,12 @@
     <t>0.0</t>
   </si>
   <si>
-    <t>1000</t>
-  </si>
-  <si>
-    <t>10.0</t>
-  </si>
-  <si>
     <t>10</t>
   </si>
   <si>
-    <t>latte</t>
-  </si>
-  <si>
-    <t>39</t>
-  </si>
-  <si>
-    <t>198</t>
-  </si>
-  <si>
     <t>41</t>
   </si>
   <si>
-    <t>196</t>
-  </si>
-  <si>
     <t>24</t>
   </si>
   <si>
@@ -267,12 +201,6 @@
     <t>20.0</t>
   </si>
   <si>
-    <t>51</t>
-  </si>
-  <si>
-    <t>149</t>
-  </si>
-  <si>
     <t>yolanda</t>
   </si>
   <si>
@@ -282,117 +210,12 @@
     <t>12332112345</t>
   </si>
   <si>
-    <t>42</t>
-  </si>
-  <si>
-    <t>195</t>
-  </si>
-  <si>
-    <t>60</t>
-  </si>
-  <si>
-    <t>140</t>
-  </si>
-  <si>
-    <t>43</t>
-  </si>
-  <si>
-    <t>194</t>
-  </si>
-  <si>
-    <t>61</t>
-  </si>
-  <si>
-    <t>139</t>
-  </si>
-  <si>
-    <t>52</t>
-  </si>
-  <si>
-    <t>185</t>
-  </si>
-  <si>
-    <t>53</t>
-  </si>
-  <si>
-    <t>184</t>
-  </si>
-  <si>
-    <t>54</t>
-  </si>
-  <si>
-    <t>183</t>
-  </si>
-  <si>
-    <t>55</t>
-  </si>
-  <si>
-    <t>182</t>
-  </si>
-  <si>
-    <t>56</t>
-  </si>
-  <si>
-    <t>181</t>
-  </si>
-  <si>
-    <t>57</t>
-  </si>
-  <si>
-    <t>180</t>
-  </si>
-  <si>
-    <t>58</t>
-  </si>
-  <si>
-    <t>179</t>
-  </si>
-  <si>
-    <t>59</t>
-  </si>
-  <si>
-    <t>178</t>
-  </si>
-  <si>
-    <t>177</t>
-  </si>
-  <si>
-    <t>176</t>
-  </si>
-  <si>
     <t>7</t>
   </si>
   <si>
     <t>62</t>
   </si>
   <si>
-    <t>175</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>63</t>
-  </si>
-  <si>
-    <t>174</t>
-  </si>
-  <si>
-    <t>64</t>
-  </si>
-  <si>
-    <t>173</t>
-  </si>
-  <si>
-    <t>65</t>
-  </si>
-  <si>
-    <t>172</t>
-  </si>
-  <si>
-    <t>999</t>
-  </si>
-  <si>
     <t>ddd</t>
   </si>
   <si>
@@ -402,18 +225,6 @@
     <t>12345678901</t>
   </si>
   <si>
-    <t>66</t>
-  </si>
-  <si>
-    <t>171</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
     <t>2022-12-11</t>
   </si>
   <si>
@@ -445,9 +256,6 @@
   </si>
   <si>
     <t>13117826002</t>
-  </si>
-  <si>
-    <t>997</t>
   </si>
   <si>
     <t>996</t>
@@ -459,15 +267,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="yyyy/mm/dd;@"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="178" formatCode="yyyy/mm/dd;@"/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -476,345 +280,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -822,255 +303,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1081,70 +320,25 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1402,39 +596,39 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.87962962962963" defaultRowHeight="14.4" outlineLevelRow="6" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="4" max="4" customWidth="true" width="11.8796296296296" collapsed="true"/>
+    <col min="4" max="4" width="11.875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="7">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A2" s="6">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -1447,7 +641,7 @@
         <v>13100008888</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
@@ -1457,7 +651,7 @@
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
@@ -1467,7 +661,7 @@
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
@@ -1477,7 +671,7 @@
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
         <v>8</v>
       </c>
@@ -1487,7 +681,7 @@
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -1502,27 +696,26 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.87962962962963" defaultRowHeight="14.4" outlineLevelRow="4" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="5" max="5" customWidth="true" width="13.0" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="13.25" collapsed="true"/>
+    <col min="5" max="5" width="13" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="13.25" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1545,7 +738,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>21</v>
       </c>
@@ -1565,10 +758,10 @@
         <v>11</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -1589,7 +782,7 @@
       </c>
       <c r="G3" s="3"/>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1612,7 +805,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -1635,97 +828,96 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>84</v>
+        <v>58</v>
       </c>
       <c r="C6" t="s">
-        <v>85</v>
+        <v>59</v>
       </c>
       <c r="D6" t="s">
         <v>21</v>
       </c>
       <c r="E6" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="F6" t="s">
         <v>11</v>
       </c>
       <c r="G6" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>124</v>
+        <v>63</v>
       </c>
       <c r="C7" t="s">
-        <v>85</v>
+        <v>59</v>
       </c>
       <c r="D7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" t="s">
         <v>64</v>
       </c>
-      <c r="E7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F7" t="s">
-        <v>125</v>
-      </c>
       <c r="G7" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>113</v>
+        <v>61</v>
       </c>
       <c r="B8" t="s">
-        <v>139</v>
+        <v>74</v>
       </c>
       <c r="C8" t="s">
-        <v>140</v>
+        <v>75</v>
       </c>
       <c r="D8" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="E8" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="F8" t="s">
         <v>11</v>
       </c>
       <c r="G8" t="s">
-        <v>141</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.87962962962963" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="4" max="4" customWidth="true" width="17.0" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="10.3796296296296" collapsed="true"/>
+    <col min="4" max="4" width="17" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="10.375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1742,7 +934,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>21</v>
       </c>
@@ -1750,33 +942,33 @@
         <v>26</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>80</v>
+        <v>56</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>27</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>135</v>
+        <v>70</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -1793,46 +985,45 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="B5" t="s">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="C5" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="D5" t="s">
-        <v>143</v>
+        <v>77</v>
       </c>
       <c r="E5" t="s">
         <v>7</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.87962962962963" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="10.6296296296296" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="15.3796296296296" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="11.6296296296296" collapsed="true"/>
+    <col min="2" max="2" width="10.625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="15.375" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="11.625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1849,7 +1040,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>21</v>
       </c>
@@ -1857,72 +1048,71 @@
         <v>29</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>138</v>
+        <v>73</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>81</v>
+        <v>57</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>133</v>
+        <v>68</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C4" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E4" t="s">
         <v>21</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.87962962962963" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="4" max="4" customWidth="true" width="24.3796296296296" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="11.3796296296296" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="13.25" collapsed="true"/>
+    <col min="4" max="4" width="24.375" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="11.375" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="13.25" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1942,7 +1132,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>21</v>
       </c>
@@ -1950,19 +1140,19 @@
         <v>34</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>132</v>
+        <v>67</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>8</v>
+        <v>66</v>
+      </c>
+      <c r="E2" s="3">
+        <v>0</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -1983,30 +1173,29 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="12.3333333333333" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="9.88888888888889" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="12.6666666666667" collapsed="true"/>
+    <col min="2" max="2" width="14" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="9.875" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="12.625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2029,7 +1218,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -2052,7 +1241,7 @@
         <v>44896</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>21</v>
       </c>
@@ -2069,18 +1258,18 @@
         <v>21</v>
       </c>
       <c r="F3" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="G3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="C4" t="s">
         <v>30</v>
@@ -2092,18 +1281,18 @@
         <v>21</v>
       </c>
       <c r="F4" t="s">
-        <v>134</v>
+        <v>69</v>
       </c>
       <c r="G4" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="C5" t="s">
         <v>27</v>
@@ -2115,13 +1304,13 @@
         <v>21</v>
       </c>
       <c r="F5" t="s">
-        <v>136</v>
+        <v>71</v>
       </c>
       <c r="G5" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -2138,37 +1327,37 @@
         <v>21</v>
       </c>
       <c r="F6" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="G6" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="C7" t="s">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
       </c>
       <c r="E7" t="s">
-        <v>144</v>
+        <v>78</v>
       </c>
       <c r="F7" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="G7" t="s">
-        <v>131</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/src/main/resources/Database.xlsx
+++ b/src/main/resources/Database.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25831"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alexander\IdeaProjects\Coffee_shop\src\main\resources\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97361364-BAD4-4321-8023-1B8FE06D2B76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2940" yWindow="2535" windowWidth="21600" windowHeight="11385" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="18468" windowHeight="9420" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="AdminUser" sheetId="1" r:id="rId1"/>
@@ -25,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="145">
   <si>
     <t>id</t>
   </si>
@@ -153,6 +147,18 @@
     <t>payTime</t>
   </si>
   <si>
+    <t>888</t>
+  </si>
+  <si>
+    <t>654321</t>
+  </si>
+  <si>
+    <t>1828889999</t>
+  </si>
+  <si>
+    <t>zhanghaichao</t>
+  </si>
+  <si>
     <t>cookie</t>
   </si>
   <si>
@@ -162,21 +168,63 @@
     <t>100</t>
   </si>
   <si>
+    <t>16.0</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>200</t>
+  </si>
+  <si>
     <t>15120065365</t>
   </si>
   <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
     <t>2</t>
   </si>
   <si>
+    <t>35</t>
+  </si>
+  <si>
     <t>199</t>
   </si>
   <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>197</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>98</t>
+  </si>
+  <si>
+    <t>Chicken</t>
+  </si>
+  <si>
+    <t>15.0</t>
+  </si>
+  <si>
     <t>0</t>
   </si>
   <si>
     <t>19.9</t>
   </si>
   <si>
+    <t>ice ream</t>
+  </si>
+  <si>
+    <t>29.9</t>
+  </si>
+  <si>
     <t>666</t>
   </si>
   <si>
@@ -186,12 +234,30 @@
     <t>0.0</t>
   </si>
   <si>
+    <t>1000</t>
+  </si>
+  <si>
+    <t>10.0</t>
+  </si>
+  <si>
     <t>10</t>
   </si>
   <si>
+    <t>latte</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>198</t>
+  </si>
+  <si>
     <t>41</t>
   </si>
   <si>
+    <t>196</t>
+  </si>
+  <si>
     <t>24</t>
   </si>
   <si>
@@ -201,6 +267,12 @@
     <t>20.0</t>
   </si>
   <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>149</t>
+  </si>
+  <si>
     <t>yolanda</t>
   </si>
   <si>
@@ -210,12 +282,117 @@
     <t>12332112345</t>
   </si>
   <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>195</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>140</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>194</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>139</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>185</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>184</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>183</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>182</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>181</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>180</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>179</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>178</t>
+  </si>
+  <si>
+    <t>177</t>
+  </si>
+  <si>
+    <t>176</t>
+  </si>
+  <si>
     <t>7</t>
   </si>
   <si>
     <t>62</t>
   </si>
   <si>
+    <t>175</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>174</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>173</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>172</t>
+  </si>
+  <si>
+    <t>999</t>
+  </si>
+  <si>
     <t>ddd</t>
   </si>
   <si>
@@ -225,6 +402,18 @@
     <t>12345678901</t>
   </si>
   <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>171</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
     <t>2022-12-11</t>
   </si>
   <si>
@@ -256,6 +445,9 @@
   </si>
   <si>
     <t>13117826002</t>
+  </si>
+  <si>
+    <t>997</t>
   </si>
   <si>
     <t>996</t>
@@ -267,11 +459,15 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="yyyy/mm/dd;@"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="5">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="yyyy/mm/dd;@"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -280,22 +476,345 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -303,13 +822,255 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -320,25 +1081,70 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -596,39 +1402,39 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.87962962962963" defaultRowHeight="14.4" outlineLevelRow="6" outlineLevelCol="3"/>
   <cols>
-    <col min="4" max="4" width="11.875" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" customWidth="true" width="11.8796296296296" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A2" s="6">
+    <row r="2" spans="1:4">
+      <c r="A2" s="7">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -641,7 +1447,7 @@
         <v>13100008888</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
@@ -651,7 +1457,7 @@
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4">
       <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
@@ -661,7 +1467,7 @@
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:4">
       <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
@@ -671,7 +1477,7 @@
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:4">
       <c r="A6" s="3" t="s">
         <v>8</v>
       </c>
@@ -681,7 +1487,7 @@
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -696,26 +1502,27 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.87962962962963" defaultRowHeight="14.4" outlineLevelRow="4" outlineLevelCol="6"/>
   <cols>
-    <col min="5" max="5" width="13" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="13.25" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="13.25" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -738,7 +1545,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7">
       <c r="A2" s="3" t="s">
         <v>21</v>
       </c>
@@ -758,10 +1565,10 @@
         <v>11</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -782,7 +1589,7 @@
       </c>
       <c r="G3" s="3"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -805,7 +1612,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -828,96 +1635,97 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="6">
       <c r="A6" t="s">
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>58</v>
+        <v>84</v>
       </c>
       <c r="C6" t="s">
-        <v>59</v>
+        <v>85</v>
       </c>
       <c r="D6" t="s">
         <v>21</v>
       </c>
       <c r="E6" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="F6" t="s">
         <v>11</v>
       </c>
       <c r="G6" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" t="s">
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>63</v>
+        <v>124</v>
       </c>
       <c r="C7" t="s">
-        <v>59</v>
+        <v>85</v>
       </c>
       <c r="D7" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="E7" t="s">
         <v>21</v>
       </c>
       <c r="F7" t="s">
+        <v>125</v>
+      </c>
+      <c r="G7" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>113</v>
+      </c>
+      <c r="B8" t="s">
+        <v>139</v>
+      </c>
+      <c r="C8" t="s">
+        <v>140</v>
+      </c>
+      <c r="D8" t="s">
         <v>64</v>
       </c>
-      <c r="G7" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A8" t="s">
-        <v>61</v>
-      </c>
-      <c r="B8" t="s">
-        <v>74</v>
-      </c>
-      <c r="C8" t="s">
-        <v>75</v>
-      </c>
-      <c r="D8" t="s">
-        <v>48</v>
-      </c>
       <c r="E8" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="F8" t="s">
         <v>11</v>
       </c>
       <c r="G8" t="s">
-        <v>76</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.87962962962963" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="4"/>
   <cols>
-    <col min="4" max="4" width="17" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="10.375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" customWidth="true" width="17.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="10.3796296296296" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -934,7 +1742,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5">
       <c r="A2" s="3" t="s">
         <v>21</v>
       </c>
@@ -942,33 +1750,33 @@
         <v>26</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>56</v>
+        <v>80</v>
       </c>
       <c r="E2" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="3" t="s">
         <v>55</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A3" s="3" t="s">
-        <v>46</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>27</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>70</v>
+        <v>135</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -985,45 +1793,46 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="5">
       <c r="A5" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="B5" t="s">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="C5" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="D5" t="s">
-        <v>77</v>
+        <v>143</v>
       </c>
       <c r="E5" t="s">
         <v>7</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.87962962962963" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="4"/>
   <cols>
-    <col min="2" max="2" width="10.625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="15.375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="11.625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" customWidth="true" width="10.6296296296296" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="15.3796296296296" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="11.6296296296296" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1040,7 +1849,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5">
       <c r="A2" s="3" t="s">
         <v>21</v>
       </c>
@@ -1048,71 +1857,72 @@
         <v>29</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>73</v>
+        <v>138</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="3" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>57</v>
+        <v>81</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>68</v>
+        <v>133</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="4">
       <c r="A4" t="s">
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C4" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="D4" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="E4" t="s">
         <v>21</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.87962962962963" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="5"/>
   <cols>
-    <col min="4" max="4" width="24.375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="11.375" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="13.25" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" customWidth="true" width="24.3796296296296" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="11.3796296296296" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="13.25" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1132,7 +1942,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6">
       <c r="A2" s="3" t="s">
         <v>21</v>
       </c>
@@ -1140,19 +1950,19 @@
         <v>34</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>67</v>
+        <v>132</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="E2" s="3">
-        <v>0</v>
+        <v>131</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -1173,29 +1983,30 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="6"/>
   <cols>
-    <col min="2" max="2" width="14" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="9.875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="12.625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="12.3333333333333" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="9.88888888888889" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="12.6666666666667" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1218,7 +2029,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1241,7 +2052,7 @@
         <v>44896</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3">
       <c r="A3" t="s">
         <v>21</v>
       </c>
@@ -1258,18 +2069,18 @@
         <v>21</v>
       </c>
       <c r="F3" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="G3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="4">
       <c r="A4" t="s">
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="C4" t="s">
         <v>30</v>
@@ -1281,18 +2092,18 @@
         <v>21</v>
       </c>
       <c r="F4" t="s">
-        <v>69</v>
+        <v>134</v>
       </c>
       <c r="G4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" t="s">
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="C5" t="s">
         <v>27</v>
@@ -1304,13 +2115,13 @@
         <v>21</v>
       </c>
       <c r="F5" t="s">
-        <v>71</v>
+        <v>136</v>
       </c>
       <c r="G5" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -1327,37 +2138,37 @@
         <v>21</v>
       </c>
       <c r="F6" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="G6" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" t="s">
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="C7" t="s">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
       </c>
       <c r="E7" t="s">
-        <v>78</v>
+        <v>144</v>
       </c>
       <c r="F7" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="G7" t="s">
-        <v>66</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/src/main/resources/Database.xlsx
+++ b/src/main/resources/Database.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18468" windowHeight="9420" activeTab="5"/>
+    <workbookView windowWidth="18468" windowHeight="9420" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="AdminUser" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="84">
   <si>
     <t>id</t>
   </si>
@@ -69,12 +69,18 @@
     <t>loyaltyCard</t>
   </si>
   <si>
+    <t>1</t>
+  </si>
+  <si>
     <t>Nancy</t>
   </si>
   <si>
     <t>Famale</t>
   </si>
   <si>
+    <t>15120065365</t>
+  </si>
+  <si>
     <t>Jerry</t>
   </si>
   <si>
@@ -84,12 +90,54 @@
     <t>unknown</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>9</t>
   </si>
   <si>
+    <t>yolanda</t>
+  </si>
+  <si>
+    <t>FEMALE</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>12332112345</t>
+  </si>
+  <si>
+    <t>ddd</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>234567</t>
+  </si>
+  <si>
+    <t>12345678901</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>Ivan</t>
+  </si>
+  <si>
+    <t>null</t>
+  </si>
+  <si>
+    <t>13188880000</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>MALE</t>
+  </si>
+  <si>
+    <t>13177788945</t>
+  </si>
+  <si>
     <t>price</t>
   </si>
   <si>
@@ -102,18 +150,75 @@
     <t>Mocca</t>
   </si>
   <si>
+    <t>30.0</t>
+  </si>
+  <si>
+    <t>96</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
     <t>Cappuccino</t>
   </si>
   <si>
+    <t>32.0</t>
+  </si>
+  <si>
+    <t>199</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
     <t>Latte</t>
   </si>
   <si>
+    <t>666</t>
+  </si>
+  <si>
+    <t>Secret</t>
+  </si>
+  <si>
+    <t>0.0</t>
+  </si>
+  <si>
+    <t>996</t>
+  </si>
+  <si>
     <t>ice cream</t>
   </si>
   <si>
+    <t>19.9</t>
+  </si>
+  <si>
+    <t>998</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
     <t>cake</t>
   </si>
   <si>
+    <t>20.0</t>
+  </si>
+  <si>
+    <t>138</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>cookie</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
     <t>bookDate</t>
   </si>
   <si>
@@ -126,9 +231,21 @@
     <t>爱琴海</t>
   </si>
   <si>
+    <t>188.0</t>
+  </si>
+  <si>
+    <t>2022-12-11</t>
+  </si>
+  <si>
     <t>波斯湾</t>
   </si>
   <si>
+    <t>288.0</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
     <t>productID</t>
   </si>
   <si>
@@ -147,310 +264,10 @@
     <t>payTime</t>
   </si>
   <si>
-    <t>888</t>
-  </si>
-  <si>
-    <t>654321</t>
-  </si>
-  <si>
-    <t>1828889999</t>
-  </si>
-  <si>
-    <t>zhanghaichao</t>
-  </si>
-  <si>
-    <t>cookie</t>
-  </si>
-  <si>
-    <t>30.0</t>
-  </si>
-  <si>
-    <t>100</t>
-  </si>
-  <si>
-    <t>16.0</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>200</t>
-  </si>
-  <si>
-    <t>15120065365</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>199</t>
-  </si>
-  <si>
-    <t>37</t>
-  </si>
-  <si>
-    <t>197</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>98</t>
-  </si>
-  <si>
-    <t>Chicken</t>
-  </si>
-  <si>
-    <t>15.0</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>19.9</t>
-  </si>
-  <si>
-    <t>ice ream</t>
-  </si>
-  <si>
-    <t>29.9</t>
-  </si>
-  <si>
-    <t>666</t>
-  </si>
-  <si>
-    <t>Secret</t>
-  </si>
-  <si>
-    <t>0.0</t>
-  </si>
-  <si>
-    <t>1000</t>
-  </si>
-  <si>
-    <t>10.0</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>latte</t>
-  </si>
-  <si>
-    <t>39</t>
-  </si>
-  <si>
-    <t>198</t>
-  </si>
-  <si>
-    <t>41</t>
-  </si>
-  <si>
-    <t>196</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>96</t>
-  </si>
-  <si>
-    <t>20.0</t>
-  </si>
-  <si>
-    <t>51</t>
-  </si>
-  <si>
-    <t>149</t>
-  </si>
-  <si>
-    <t>yolanda</t>
-  </si>
-  <si>
-    <t>FEMALE</t>
-  </si>
-  <si>
-    <t>12332112345</t>
-  </si>
-  <si>
-    <t>42</t>
-  </si>
-  <si>
-    <t>195</t>
-  </si>
-  <si>
-    <t>60</t>
-  </si>
-  <si>
-    <t>140</t>
-  </si>
-  <si>
-    <t>43</t>
-  </si>
-  <si>
-    <t>194</t>
-  </si>
-  <si>
-    <t>61</t>
-  </si>
-  <si>
-    <t>139</t>
-  </si>
-  <si>
-    <t>52</t>
-  </si>
-  <si>
-    <t>185</t>
-  </si>
-  <si>
-    <t>53</t>
-  </si>
-  <si>
-    <t>184</t>
-  </si>
-  <si>
-    <t>54</t>
-  </si>
-  <si>
-    <t>183</t>
-  </si>
-  <si>
-    <t>55</t>
-  </si>
-  <si>
-    <t>182</t>
-  </si>
-  <si>
-    <t>56</t>
-  </si>
-  <si>
-    <t>181</t>
-  </si>
-  <si>
-    <t>57</t>
-  </si>
-  <si>
-    <t>180</t>
-  </si>
-  <si>
-    <t>58</t>
-  </si>
-  <si>
-    <t>179</t>
-  </si>
-  <si>
-    <t>59</t>
-  </si>
-  <si>
-    <t>178</t>
-  </si>
-  <si>
-    <t>177</t>
-  </si>
-  <si>
-    <t>176</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>62</t>
-  </si>
-  <si>
-    <t>175</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>63</t>
-  </si>
-  <si>
-    <t>174</t>
-  </si>
-  <si>
-    <t>64</t>
-  </si>
-  <si>
-    <t>173</t>
-  </si>
-  <si>
-    <t>65</t>
-  </si>
-  <si>
-    <t>172</t>
-  </si>
-  <si>
-    <t>999</t>
-  </si>
-  <si>
-    <t>ddd</t>
-  </si>
-  <si>
-    <t>234567</t>
-  </si>
-  <si>
-    <t>12345678901</t>
-  </si>
-  <si>
-    <t>66</t>
-  </si>
-  <si>
-    <t>171</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>2022-12-11</t>
-  </si>
-  <si>
-    <t>188.0</t>
-  </si>
-  <si>
-    <t>138</t>
-  </si>
-  <si>
     <t>19.0</t>
   </si>
   <si>
-    <t>32.0</t>
-  </si>
-  <si>
     <t>30.4</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>998</t>
-  </si>
-  <si>
-    <t>Daven</t>
-  </si>
-  <si>
-    <t>SECRET</t>
-  </si>
-  <si>
-    <t>13117826002</t>
-  </si>
-  <si>
-    <t>997</t>
-  </si>
-  <si>
-    <t>996</t>
   </si>
   <si>
     <t>-2</t>
@@ -1416,7 +1233,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.87962962962963" defaultRowHeight="14.4" outlineLevelRow="6" outlineLevelCol="3"/>
   <cols>
-    <col min="4" max="4" customWidth="true" width="11.8796296296296" collapsed="true"/>
+    <col min="4" max="4" width="11.8796296296296" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1510,16 +1327,16 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.87962962962963" defaultRowHeight="14.4" outlineLevelRow="4" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="8.87962962962963" defaultRowHeight="14.4" outlineLevelCol="6"/>
   <cols>
-    <col min="5" max="5" customWidth="true" width="13.0" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="13.25" collapsed="true"/>
+    <col min="5" max="5" width="13" customWidth="1"/>
+    <col min="7" max="7" width="13.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1547,16 +1364,16 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="3" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>7</v>
@@ -1565,7 +1382,7 @@
         <v>11</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>52</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1573,10 +1390,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D3" s="3">
         <v>0</v>
@@ -1597,13 +1414,13 @@
         <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F4" t="s">
         <v>11</v>
@@ -1620,13 +1437,13 @@
         <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F5" t="s">
         <v>11</v>
@@ -1635,73 +1452,96 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>84</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>85</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E6" t="s">
-        <v>73</v>
+        <v>26</v>
       </c>
       <c r="F6" t="s">
         <v>11</v>
       </c>
       <c r="G6" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>124</v>
+        <v>28</v>
       </c>
       <c r="C7" t="s">
-        <v>85</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>64</v>
+        <v>29</v>
       </c>
       <c r="E7" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="F7" t="s">
-        <v>125</v>
+        <v>30</v>
       </c>
       <c r="G7" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>113</v>
+        <v>32</v>
       </c>
       <c r="B8" t="s">
-        <v>139</v>
+        <v>33</v>
       </c>
       <c r="C8" t="s">
-        <v>140</v>
+        <v>34</v>
       </c>
       <c r="D8" t="s">
-        <v>64</v>
+        <v>29</v>
       </c>
       <c r="E8" t="s">
-        <v>64</v>
+        <v>29</v>
       </c>
       <c r="F8" t="s">
         <v>11</v>
       </c>
       <c r="G8" t="s">
-        <v>141</v>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1719,10 +1559,10 @@
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.87962962962963" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="8.87962962962963" defaultRowHeight="14.4" outlineLevelRow="4" outlineLevelCol="4"/>
   <cols>
-    <col min="4" max="4" customWidth="true" width="17.0" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="10.3796296296296" collapsed="true"/>
+    <col min="4" max="4" width="17" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="10.3796296296296" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -1733,47 +1573,47 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="3" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>80</v>
+        <v>44</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="3" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>135</v>
+        <v>48</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>77</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1781,7 +1621,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>28</v>
+        <v>51</v>
       </c>
       <c r="C4" s="3">
         <v>36</v>
@@ -1793,18 +1633,18 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="B5" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="C5" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="D5" t="s">
-        <v>143</v>
+        <v>55</v>
       </c>
       <c r="E5" t="s">
         <v>7</v>
@@ -1825,11 +1665,11 @@
       <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.87962962962963" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="8.87962962962963" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="4"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="10.6296296296296" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="15.3796296296296" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="11.6296296296296" collapsed="true"/>
+    <col min="2" max="2" width="10.6296296296296" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="15.3796296296296" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="11.6296296296296" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -1840,64 +1680,64 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="3" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>138</v>
+        <v>58</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>137</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="3" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>133</v>
+        <v>62</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="C4" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D4" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="E4" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -1911,15 +1751,15 @@
   <sheetPr/>
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.87962962962963" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="5"/>
   <cols>
-    <col min="4" max="4" customWidth="true" width="24.3796296296296" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="11.3796296296296" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="13.25" collapsed="true"/>
+    <col min="4" max="4" width="24.3796296296296" customWidth="1"/>
+    <col min="5" max="5" width="11.3796296296296" customWidth="1"/>
+    <col min="6" max="6" width="13.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -1930,56 +1770,56 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>31</v>
+        <v>66</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>32</v>
+        <v>67</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>33</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="3" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>34</v>
+        <v>69</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>132</v>
+        <v>70</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>131</v>
+        <v>71</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>8</v>
       </c>
       <c r="F2" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C3" s="3">
-        <v>288</v>
-      </c>
       <c r="D3" s="4">
-        <v>44894</v>
+        <v>44906</v>
       </c>
       <c r="E3" s="3">
-        <v>2</v>
-      </c>
-      <c r="F3" s="3">
-        <v>15</v>
+        <v>0</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -1994,16 +1834,16 @@
   <sheetPr/>
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="6" outlineLevelCol="6"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="12.3333333333333" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="9.88888888888889" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="12.6666666666667" collapsed="true"/>
+    <col min="2" max="2" width="14" customWidth="1"/>
+    <col min="3" max="3" width="12.3333333333333" customWidth="1"/>
+    <col min="4" max="4" width="9.88888888888889" customWidth="1"/>
+    <col min="7" max="7" width="12.6666666666667" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -2011,22 +1851,22 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>36</v>
+        <v>75</v>
       </c>
       <c r="C1" t="s">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="D1" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="E1" t="s">
-        <v>39</v>
+        <v>78</v>
       </c>
       <c r="F1" t="s">
-        <v>40</v>
+        <v>79</v>
       </c>
       <c r="G1" t="s">
-        <v>41</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2037,7 +1877,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="D2" s="1">
         <v>1</v>
@@ -2052,119 +1892,119 @@
         <v>44896</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E3" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="F3" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="G3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E4" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="F4" t="s">
-        <v>134</v>
+        <v>81</v>
       </c>
       <c r="G4" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E5" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="F5" t="s">
-        <v>136</v>
+        <v>82</v>
       </c>
       <c r="G5" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E6" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="F6" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="G6" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="C7" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E7" t="s">
-        <v>144</v>
+        <v>83</v>
       </c>
       <c r="F7" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="G7" t="s">
-        <v>131</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/Database.xlsx
+++ b/src/main/resources/Database.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="150">
   <si>
     <t>id</t>
   </si>
@@ -454,6 +454,21 @@
   </si>
   <si>
     <t>-2</t>
+  </si>
+  <si>
+    <t>114</t>
+  </si>
+  <si>
+    <t>898</t>
+  </si>
+  <si>
+    <t>1989.9999999999998</t>
+  </si>
+  <si>
+    <t>2022-12-17</t>
+  </si>
+  <si>
+    <t>137</t>
   </si>
 </sst>
 </file>
@@ -1603,7 +1618,7 @@
         <v>21</v>
       </c>
       <c r="E4" t="s">
-        <v>22</v>
+        <v>73</v>
       </c>
       <c r="F4" t="s">
         <v>11</v>
@@ -1860,10 +1875,10 @@
         <v>65</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1877,10 +1892,10 @@
         <v>81</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>133</v>
+        <v>149</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
     </row>
     <row r="4">
@@ -1953,10 +1968,10 @@
         <v>132</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>131</v>
+        <v>148</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>73</v>
@@ -1992,7 +2007,7 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:G2"/>
@@ -2167,6 +2182,52 @@
         <v>131</v>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>113</v>
+      </c>
+      <c r="B8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" t="s">
+        <v>48</v>
+      </c>
+      <c r="E8" t="s">
+        <v>144</v>
+      </c>
+      <c r="F8" t="s">
+        <v>147</v>
+      </c>
+      <c r="G8" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>116</v>
+      </c>
+      <c r="B9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F9" t="s">
+        <v>81</v>
+      </c>
+      <c r="G9" t="s">
+        <v>148</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/src/main/resources/Database.xlsx
+++ b/src/main/resources/Database.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="143">
   <si>
     <t>id</t>
   </si>
@@ -418,6 +418,36 @@
   </si>
   <si>
     <t>188.0</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>997</t>
+  </si>
+  <si>
+    <t>32.0</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>995</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>137</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>95</t>
   </si>
 </sst>
 </file>
@@ -1694,27 +1724,27 @@
         <v>47</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>80</v>
+        <v>142</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>79</v>
+        <v>141</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="3">
-        <v>2</v>
+      <c r="A3" s="3" t="s">
+        <v>55</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="3">
-        <v>32</v>
-      </c>
-      <c r="D3" s="3">
-        <v>200</v>
-      </c>
-      <c r="E3" s="3">
-        <v>40</v>
+      <c r="C3" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1801,10 +1831,10 @@
         <v>65</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>123</v>
+        <v>137</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1818,10 +1848,10 @@
         <v>81</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>94</v>
+        <v>139</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>93</v>
+        <v>117</v>
       </c>
     </row>
     <row r="4">
